--- a/docs/team-2-dev-status.xlsx
+++ b/docs/team-2-dev-status.xlsx
@@ -183,11 +183,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -208,7 +208,7 @@
       <b/>
       <sz val="15"/>
       <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -223,14 +223,14 @@
       <b/>
       <sz val="14"/>
       <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -238,15 +238,8 @@
       <b/>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="6"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <family val="3"/>
-      <charset val="128"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -621,25 +614,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="85.375" customWidth="1"/>
-    <col min="4" max="4" width="9.125" style="2"/>
+    <col min="1" max="1" width="85.42578125" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5"/>
     </row>
-    <row r="3" spans="1:2" ht="43.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:2" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>21</v>
       </c>
@@ -647,7 +640,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="36" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:2" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>22</v>
       </c>
@@ -655,7 +648,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>31</v>
       </c>
@@ -663,7 +656,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>23</v>
       </c>
@@ -671,7 +664,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="53.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:2" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>24</v>
       </c>
@@ -679,7 +672,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="27" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>25</v>
       </c>
@@ -687,7 +680,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="27" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>26</v>
       </c>
@@ -695,7 +688,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="27" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>27</v>
       </c>
@@ -703,7 +696,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="27" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>28</v>
       </c>
@@ -711,18 +704,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="3:6" x14ac:dyDescent="0.15">
+    <row r="21" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C21" s="2"/>
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
     </row>
-    <row r="22" spans="3:6" x14ac:dyDescent="0.15">
+    <row r="22" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C22" s="2"/>
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="8"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -732,14 +724,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:B44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B37" sqref="B37"/>
+    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="109" style="7" customWidth="1"/>
-    <col min="2" max="2" width="9.125" style="13"/>
+    <col min="2" max="2" width="9.140625" style="13"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:2" ht="18" x14ac:dyDescent="0.25">
@@ -754,7 +746,7 @@
       <c r="A3" s="6"/>
       <c r="B3" s="9"/>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
         <v>1</v>
       </c>
@@ -762,10 +754,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B5" s="10"/>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
         <v>29</v>
       </c>
@@ -773,10 +765,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B7" s="9"/>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>2</v>
       </c>
@@ -784,10 +776,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B9" s="9"/>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
         <v>3</v>
       </c>
@@ -795,10 +787,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B11" s="9"/>
     </row>
-    <row r="12" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="14" t="s">
         <v>4</v>
       </c>
@@ -806,10 +798,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B13" s="9"/>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="s">
         <v>5</v>
       </c>
@@ -817,11 +809,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="14"/>
       <c r="B15" s="9"/>
     </row>
-    <row r="16" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="14" t="s">
         <v>6</v>
       </c>
@@ -829,10 +821,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B17" s="9"/>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="8" t="s">
         <v>7</v>
       </c>
@@ -840,23 +832,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="8"/>
       <c r="B19" s="11"/>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="8" t="s">
         <v>8</v>
       </c>
       <c r="B20" s="11">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" s="8"/>
       <c r="B21" s="11"/>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" s="7" t="s">
         <v>9</v>
       </c>
@@ -864,19 +856,19 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B23" s="9"/>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" s="7" t="s">
         <v>10</v>
       </c>
       <c r="B24" s="9"/>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B25" s="9"/>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" s="7" t="s">
         <v>11</v>
       </c>
@@ -884,10 +876,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B27" s="12"/>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" s="7" t="s">
         <v>12</v>
       </c>
@@ -895,10 +887,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B29" s="9"/>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" s="7" t="s">
         <v>13</v>
       </c>
@@ -906,10 +898,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B31" s="9"/>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" s="7" t="s">
         <v>14</v>
       </c>
@@ -917,10 +909,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B33" s="9"/>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" s="7" t="s">
         <v>15</v>
       </c>
@@ -928,10 +920,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B35" s="9"/>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" s="7" t="s">
         <v>20</v>
       </c>
@@ -939,10 +931,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B37" s="9"/>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" s="7" t="s">
         <v>16</v>
       </c>
@@ -950,42 +942,40 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B39" s="9"/>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" s="7" t="s">
         <v>18</v>
       </c>
       <c r="B40" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B41" s="9"/>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" s="7" t="s">
         <v>19</v>
       </c>
       <c r="B42" s="11">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B43" s="11"/>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" s="7" t="s">
         <v>17</v>
       </c>
       <c r="B44" s="9">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="8"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>